--- a/webapp/resource/template/importexcel/员工信息导入模板（编码）.xlsx
+++ b/webapp/resource/template/importexcel/员工信息导入模板（编码）.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18326"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="20385" windowHeight="8340"/>
+    <workbookView minimized="1" xWindow="0" yWindow="30" windowWidth="20385" windowHeight="8340"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$3:$C$3</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -24,7 +29,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0">
+    <comment ref="E2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -48,7 +53,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I2" authorId="0">
+    <comment ref="I2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -67,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>姓名</t>
   </si>
@@ -121,22 +126,26 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>红色为必填项，不能为空，工号为空时身份证不能为空</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>D001</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>J001</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>入职日期</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>红色为必填项，不能为空，工号为空时身份证不能为空，日期格式yyyy-MM-dd文本模式</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -247,7 +256,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -261,6 +270,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -270,6 +283,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -318,7 +334,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -351,9 +367,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -386,6 +419,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -562,10 +612,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection sqref="A1:N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -575,11 +625,12 @@
     <col min="6" max="6" width="11.625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.25" customWidth="1"/>
+    <col min="12" max="13" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -593,8 +644,9 @@
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
     </row>
-    <row r="2" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -628,14 +680,17 @@
       <c r="K2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A3" s="3">
         <v>1001</v>
       </c>
@@ -649,10 +704,10 @@
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -663,7 +718,7 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A1:N1"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
